--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F70CF4-AF7A-2148-9D4C-F1385DC35544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8EFA5-E6F0-EE44-98EA-D1BFB09EF497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
+    <workbookView xWindow="40940" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>Country:</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>No normalisation</t>
+  </si>
+  <si>
+    <t>counts normalised</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 2, 'n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 100, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.3, 'max_depth': 3, 'n_estimators': 50, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>Big features normalised</t>
   </si>
 </sst>
 </file>
@@ -93,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
@@ -445,6 +482,11 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
@@ -473,7 +515,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.65675600000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.55030999999999997</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -483,18 +534,6 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>0.56154870672207602</v>
-      </c>
-      <c r="E4">
-        <v>0.56939073107495697</v>
-      </c>
-      <c r="F4">
-        <v>0.75457983744263701</v>
-      </c>
-      <c r="G4">
-        <v>0.46836927449982102</v>
-      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -504,16 +543,16 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.47731300245983399</v>
+        <v>0.32634000000000002</v>
       </c>
       <c r="E5">
-        <v>0.67878265206557298</v>
+        <v>1.053183</v>
       </c>
       <c r="F5">
-        <v>0.82388266887073902</v>
+        <v>1.026</v>
       </c>
       <c r="G5">
-        <v>0.57065440080630503</v>
+        <v>0.63370000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -523,18 +562,6 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>-4.29420990962658E-3</v>
-      </c>
-      <c r="E6">
-        <v>1.30421741972674</v>
-      </c>
-      <c r="F6">
-        <v>1.14202338843245</v>
-      </c>
-      <c r="G6">
-        <v>0.74756356052129602</v>
-      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -544,7 +571,16 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.52700000000000002</v>
+        <v>0.51</v>
+      </c>
+      <c r="E8">
+        <v>0.49003999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.70001999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.44246799999999997</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -554,18 +590,6 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>0.39640336813724703</v>
-      </c>
-      <c r="E9">
-        <v>0.88233989852584604</v>
-      </c>
-      <c r="F9">
-        <v>0.93932949412112299</v>
-      </c>
-      <c r="G9">
-        <v>0.38311973071200001</v>
-      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -574,18 +598,6 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>0.37232809034124498</v>
-      </c>
-      <c r="E10">
-        <v>0.91753323302466405</v>
-      </c>
-      <c r="F10">
-        <v>0.95787955037398298</v>
-      </c>
-      <c r="G10">
-        <v>0.34409168892001502</v>
-      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -602,9 +614,6 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>0.41499999999999998</v>
-      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -613,18 +622,6 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>0.51778851173274798</v>
-      </c>
-      <c r="E14">
-        <v>8.9232042805932402E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.29871732926954903</v>
-      </c>
-      <c r="G14">
-        <v>0.24309479402165199</v>
-      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -633,18 +630,6 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>0.26086590932272202</v>
-      </c>
-      <c r="E15">
-        <v>0.13677493469853899</v>
-      </c>
-      <c r="F15">
-        <v>0.36983095421900403</v>
-      </c>
-      <c r="G15">
-        <v>0.29487752762644598</v>
-      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -654,18 +639,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -673,43 +655,450 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>0.52077134476710996</v>
+        <v>0.54149000000000003</v>
       </c>
       <c r="E19">
-        <v>0.65656657909156402</v>
+        <v>0.32562000000000002</v>
       </c>
       <c r="F19">
-        <v>0.81028796059892405</v>
+        <v>0.57062999999999997</v>
       </c>
       <c r="G19">
-        <v>0.35214525640873001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.28970000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>0.529282922585114</v>
-      </c>
-      <c r="E20">
-        <v>0.64490530326922701</v>
-      </c>
-      <c r="F20">
-        <v>0.803059962436944</v>
-      </c>
-      <c r="G20">
-        <v>0.35394934058113597</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E24">
+        <v>2133136702.5999999</v>
+      </c>
+      <c r="F24">
+        <v>46185.892890000003</v>
+      </c>
+      <c r="G24">
+        <v>31363.129499999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0.24965560000000001</v>
+      </c>
+      <c r="E25">
+        <v>3164926691</v>
+      </c>
+      <c r="F25">
+        <v>56257.681100000002</v>
+      </c>
+      <c r="G25">
+        <v>35478.873</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0.265681</v>
+      </c>
+      <c r="E26">
+        <v>3097330360.6069999</v>
+      </c>
+      <c r="F26">
+        <v>55653.663999999997</v>
+      </c>
+      <c r="G26">
+        <v>35882.152999999998</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.51</v>
+      </c>
+      <c r="E29">
+        <v>8122793.0499999998</v>
+      </c>
+      <c r="F29">
+        <v>2850.05141</v>
+      </c>
+      <c r="G29">
+        <v>1801.4359999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="E30">
+        <v>14563618.325999999</v>
+      </c>
+      <c r="F30">
+        <v>3816.23</v>
+      </c>
+      <c r="G30">
+        <v>1384.6443999999999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>0.42876999999999998</v>
+      </c>
+      <c r="E31">
+        <v>13841119</v>
+      </c>
+      <c r="F31">
+        <v>3720.3649999999998</v>
+      </c>
+      <c r="G31">
+        <v>1324.55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E34">
+        <v>35621025.670000002</v>
+      </c>
+      <c r="F34">
+        <v>5968.3352000000004</v>
+      </c>
+      <c r="G34">
+        <v>3435.55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>0.212062</v>
+      </c>
+      <c r="E36">
+        <v>8151364.7000000002</v>
+      </c>
+      <c r="F36">
+        <v>2855.0594999999998</v>
+      </c>
+      <c r="G36">
+        <v>2464.13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1199589552.32131</v>
+      </c>
+      <c r="F39">
+        <v>34635.089999999997</v>
+      </c>
+      <c r="G39">
+        <v>18676.68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0.45092599999999999</v>
+      </c>
+      <c r="E40">
+        <v>594231335.00399995</v>
+      </c>
+      <c r="F40">
+        <v>24376.8606</v>
+      </c>
+      <c r="G40">
+        <v>11503.171</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>0.60722679999999996</v>
+      </c>
+      <c r="E41">
+        <v>425076166.20999998</v>
+      </c>
+      <c r="F41">
+        <v>20617.3753</v>
+      </c>
+      <c r="G41">
+        <v>10440.5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
         <v>9</v>
       </c>
     </row>

--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8EFA5-E6F0-EE44-98EA-D1BFB09EF497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8035E-24C0-D64B-A713-BA4308F2E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40940" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
     <t>Country:</t>
   </si>
@@ -86,28 +86,10 @@
     <t>counts normalised</t>
   </si>
   <si>
-    <t>{'max_depth': 20, 'min_samples_split': 2, 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'subsample': 1}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 15, 'min_samples_split': 2, 'n_estimators': 300}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 100, 'subsample': 1}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.3, 'max_depth': 3, 'n_estimators': 50, 'subsample': 0.8}</t>
-  </si>
-  <si>
     <t>Big features normalised</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 400}</t>
   </si>
 </sst>
 </file>
@@ -468,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,13 +500,13 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="E3">
-        <v>0.65675600000000001</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="F3">
-        <v>0.81040000000000001</v>
+        <v>0.81066000000000005</v>
       </c>
       <c r="G3">
-        <v>0.55030999999999997</v>
+        <v>0.55096000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -534,6 +516,18 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>0.33859</v>
+      </c>
+      <c r="E4">
+        <v>0.85892999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.92678499999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.60109999999999997</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -543,16 +537,16 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.32634000000000002</v>
+        <v>0.31298999999999999</v>
       </c>
       <c r="E5">
-        <v>1.053183</v>
+        <v>0.89217000000000002</v>
       </c>
       <c r="F5">
-        <v>1.026</v>
+        <v>0.94450000000000001</v>
       </c>
       <c r="G5">
-        <v>0.63370000000000004</v>
+        <v>0.61709999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -571,16 +565,16 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.51</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E8">
-        <v>0.49003999999999998</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="F8">
-        <v>0.70001999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G8">
-        <v>0.44246799999999997</v>
+        <v>0.43919999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -590,6 +584,18 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.99012999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.37023</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -646,6 +652,18 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
+      <c r="D18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.78832800000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.88787000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.47837000000000002</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -654,18 +672,6 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>0.54149000000000003</v>
-      </c>
-      <c r="E19">
-        <v>0.32562000000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.57062999999999997</v>
-      </c>
-      <c r="G19">
-        <v>0.28970000000000001</v>
-      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -673,6 +679,21 @@
       </c>
       <c r="C20" t="s">
         <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.323824</v>
+      </c>
+      <c r="F20">
+        <v>0.56904999999999994</v>
+      </c>
+      <c r="G20">
+        <v>0.27920200000000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -695,18 +716,6 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E24">
-        <v>2133136702.5999999</v>
-      </c>
-      <c r="F24">
-        <v>46185.892890000003</v>
-      </c>
-      <c r="G24">
-        <v>31363.129499999999</v>
-      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -715,21 +724,6 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>0.24965560000000001</v>
-      </c>
-      <c r="E25">
-        <v>3164926691</v>
-      </c>
-      <c r="F25">
-        <v>56257.681100000002</v>
-      </c>
-      <c r="G25">
-        <v>35478.873</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -738,21 +732,6 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>0.265681</v>
-      </c>
-      <c r="E26">
-        <v>3097330360.6069999</v>
-      </c>
-      <c r="F26">
-        <v>55653.663999999997</v>
-      </c>
-      <c r="G26">
-        <v>35882.152999999998</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -769,18 +748,6 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
-        <v>0.51</v>
-      </c>
-      <c r="E29">
-        <v>8122793.0499999998</v>
-      </c>
-      <c r="F29">
-        <v>2850.05141</v>
-      </c>
-      <c r="G29">
-        <v>1801.4359999999999</v>
-      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -789,21 +756,6 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>0.39889999999999998</v>
-      </c>
-      <c r="E30">
-        <v>14563618.325999999</v>
-      </c>
-      <c r="F30">
-        <v>3816.23</v>
-      </c>
-      <c r="G30">
-        <v>1384.6443999999999</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
@@ -812,21 +764,6 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
-        <v>0.42876999999999998</v>
-      </c>
-      <c r="E31">
-        <v>13841119</v>
-      </c>
-      <c r="F31">
-        <v>3720.3649999999998</v>
-      </c>
-      <c r="G31">
-        <v>1324.55</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -836,27 +773,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E34">
-        <v>35621025.670000002</v>
-      </c>
-      <c r="F34">
-        <v>5968.3352000000004</v>
-      </c>
-      <c r="G34">
-        <v>3435.55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -864,30 +789,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
-        <v>0.212062</v>
-      </c>
-      <c r="E36">
-        <v>8151364.7000000002</v>
-      </c>
-      <c r="F36">
-        <v>2855.0594999999998</v>
-      </c>
-      <c r="G36">
-        <v>2464.13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -895,86 +805,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E39">
-        <v>1199589552.32131</v>
-      </c>
-      <c r="F39">
-        <v>34635.089999999997</v>
-      </c>
-      <c r="G39">
-        <v>18676.68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>0.45092599999999999</v>
-      </c>
-      <c r="E40">
-        <v>594231335.00399995</v>
-      </c>
-      <c r="F40">
-        <v>24376.8606</v>
-      </c>
-      <c r="G40">
-        <v>11503.171</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
-        <v>0.60722679999999996</v>
-      </c>
-      <c r="E41">
-        <v>425076166.20999998</v>
-      </c>
-      <c r="F41">
-        <v>20617.3753</v>
-      </c>
-      <c r="G41">
-        <v>10440.5</v>
-      </c>
-      <c r="H41" t="s">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -982,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>6</v>
       </c>
@@ -990,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>6</v>
       </c>

--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8035E-24C0-D64B-A713-BA4308F2E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0979E-E4F1-BB48-A0FD-B3AE7B178947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
+    <workbookView xWindow="60060" yWindow="500" windowWidth="16740" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>Country:</t>
   </si>
@@ -86,10 +86,37 @@
     <t>counts normalised</t>
   </si>
   <si>
+    <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 100}</t>
+  </si>
+  <si>
     <t>Big features normalised</t>
   </si>
   <si>
-    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 400}</t>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 15, 'n_estimators': 50, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 10, 'min_samples_split': 10, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 50, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_split': 2, 'n_estimators': 500}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 50, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_split': 5, 'n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 300}</t>
   </si>
 </sst>
 </file>
@@ -450,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,12 +491,12 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -509,7 +536,7 @@
         <v>0.55096000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -528,8 +555,11 @@
       <c r="G4">
         <v>0.60109999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -548,8 +578,11 @@
       <c r="G5">
         <v>0.61709999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -557,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -577,7 +610,7 @@
         <v>0.43919999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -585,27 +618,45 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.32929999999999998</v>
+        <v>0.28149999999999997</v>
       </c>
       <c r="E9">
-        <v>0.98029999999999995</v>
+        <v>1.0501819999999999</v>
       </c>
       <c r="F9">
-        <v>0.99012999999999995</v>
+        <v>1.02478</v>
       </c>
       <c r="G9">
-        <v>0.37023</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.36614999999999998</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.99012999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.37023</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -613,31 +664,73 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.67339000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.8206</v>
+      </c>
+      <c r="G13">
+        <v>0.45605000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E14">
+        <v>7.9375000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.22758700000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>-0.1845</v>
+      </c>
+      <c r="E15">
+        <v>0.21919</v>
+      </c>
+      <c r="F15">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -672,6 +765,18 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
+      <c r="D19">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.36347000000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.60287999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.30597999999999997</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -681,19 +786,19 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>0.54400000000000004</v>
+        <v>0.56096000000000001</v>
       </c>
       <c r="E20">
-        <v>0.323824</v>
+        <v>0.31179000000000001</v>
       </c>
       <c r="F20">
-        <v>0.56904999999999994</v>
+        <v>0.55838399999999999</v>
       </c>
       <c r="G20">
-        <v>0.27920200000000001</v>
+        <v>0.27726899999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -716,6 +821,18 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
+      <c r="D24">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E24">
+        <v>2134517986.3800001</v>
+      </c>
+      <c r="F24">
+        <v>46200.84</v>
+      </c>
+      <c r="G24">
+        <v>31400</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -724,6 +841,21 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
+      <c r="D25">
+        <v>0.39935999999999999</v>
+      </c>
+      <c r="E25">
+        <v>2533461336.4200001</v>
+      </c>
+      <c r="F25">
+        <v>50333.500999999997</v>
+      </c>
+      <c r="G25">
+        <v>31921.484</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -732,6 +864,21 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
+      <c r="D26">
+        <v>0.29147000000000001</v>
+      </c>
+      <c r="E26">
+        <v>2988521504.1859999</v>
+      </c>
+      <c r="F26">
+        <v>54667.37</v>
+      </c>
+      <c r="G26">
+        <v>34902.582399999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -748,6 +895,18 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
+      <c r="D29">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E29">
+        <v>8169801.6749999998</v>
+      </c>
+      <c r="F29">
+        <v>2858.2864</v>
+      </c>
+      <c r="G29">
+        <v>1788.1441</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -764,6 +923,21 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
+      <c r="D31">
+        <v>0.4481</v>
+      </c>
+      <c r="E31">
+        <v>13372770.568600001</v>
+      </c>
+      <c r="F31">
+        <v>3656.8798000000002</v>
+      </c>
+      <c r="G31">
+        <v>1423.14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -773,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -781,7 +955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -789,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -797,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -805,31 +979,73 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1201346260.21</v>
+      </c>
+      <c r="F39">
+        <v>34660.442199999998</v>
+      </c>
+      <c r="G39">
+        <v>18674.57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0.48448999999999998</v>
+      </c>
+      <c r="E40">
+        <v>557904835.10000002</v>
+      </c>
+      <c r="F40">
+        <v>23620.008999999998</v>
+      </c>
+      <c r="G40">
+        <v>11194.483</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>0.63099000000000005</v>
+      </c>
+      <c r="E41">
+        <v>399357801.53399998</v>
+      </c>
+      <c r="F41">
+        <v>19983.937999999998</v>
+      </c>
+      <c r="G41">
+        <v>10328.907999999999</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -837,12 +1053,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -850,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>6</v>
       </c>
@@ -858,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>6</v>
       </c>

--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0979E-E4F1-BB48-A0FD-B3AE7B178947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A767328-9D1D-064E-A3ED-D6316AFC2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60060" yWindow="500" windowWidth="16740" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Country:</t>
   </si>
@@ -89,9 +89,6 @@
     <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 100}</t>
   </si>
   <si>
-    <t>Big features normalised</t>
-  </si>
-  <si>
     <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 15, 'n_estimators': 50, 'subsample': 0.8}</t>
   </si>
   <si>
@@ -117,6 +114,18 @@
   </si>
   <si>
     <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_split': 5, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 50, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 10, 'n_estimators': 50, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>counts normalised with natural log</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
@@ -556,7 +565,7 @@
         <v>0.60109999999999997</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -630,7 +639,7 @@
         <v>0.36614999999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -653,7 +662,7 @@
         <v>0.37023</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -704,7 +713,7 @@
         <v>0.22758700000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -727,7 +736,7 @@
         <v>0.36020000000000002</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -798,7 +807,7 @@
         <v>0.27726899999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -854,7 +863,7 @@
         <v>31921.484</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -877,7 +886,7 @@
         <v>34902.582399999999</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -915,6 +924,21 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
+      <c r="D30">
+        <v>0.48554560000000002</v>
+      </c>
+      <c r="E30">
+        <v>12465498.727</v>
+      </c>
+      <c r="F30">
+        <v>3530.6513</v>
+      </c>
+      <c r="G30">
+        <v>1402.25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
@@ -936,7 +960,7 @@
         <v>1423.14</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
@@ -954,6 +978,18 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
+      <c r="D34">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E34">
+        <v>37646414.93</v>
+      </c>
+      <c r="F34">
+        <v>6135.6670000000004</v>
+      </c>
+      <c r="G34">
+        <v>3409.8946000000001</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -962,6 +998,21 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
+      <c r="D35">
+        <v>0.50087999999999999</v>
+      </c>
+      <c r="E35">
+        <v>5163457.767</v>
+      </c>
+      <c r="F35">
+        <v>2272.3243000000002</v>
+      </c>
+      <c r="G35">
+        <v>1943.3332</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
@@ -970,6 +1021,21 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
+      <c r="D36">
+        <v>8.4444000000000005E-2</v>
+      </c>
+      <c r="E36">
+        <v>9471598.7388000004</v>
+      </c>
+      <c r="F36">
+        <v>3077.5962500000001</v>
+      </c>
+      <c r="G36">
+        <v>2282.0819000000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
@@ -1019,7 +1085,7 @@
         <v>11194.483</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -1042,7 +1108,7 @@
         <v>10328.907999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -1055,7 +1121,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -1082,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>12</v>
       </c>
@@ -1162,23 +1228,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>0.394978</v>
+      </c>
+      <c r="E62">
+        <v>2.2915562999999999</v>
+      </c>
+      <c r="F62">
+        <v>1.5137879999999999</v>
+      </c>
+      <c r="G62">
+        <v>1.04867</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>0.481709</v>
+      </c>
+      <c r="E63">
+        <v>1.96305</v>
+      </c>
+      <c r="F63">
+        <v>1.4010899999999999</v>
+      </c>
+      <c r="G63">
+        <v>1.01651</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>12</v>
       </c>

--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A767328-9D1D-064E-A3ED-D6316AFC2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0339B09-9AA1-3F4A-8C36-7F5D23578897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60060" yWindow="500" windowWidth="16740" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Country:</t>
   </si>
@@ -86,6 +86,9 @@
     <t>counts normalised</t>
   </si>
   <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'subsample': 1}</t>
+  </si>
+  <si>
     <t>{'max_depth': 10, 'min_samples_split': 5, 'n_estimators': 100}</t>
   </si>
   <si>
@@ -126,6 +129,30 @@
   </si>
   <si>
     <t>counts normalised with natural log</t>
+  </si>
+  <si>
+    <t>{'max_depth': 10, 'min_samples_split': 2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 250, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_split': 5, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 0.8, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 50, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'min_samples_split': 2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_split': 2, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 1, 'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>counts and cycle_length normalised</t>
   </si>
 </sst>
 </file>
@@ -484,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
-  <dimension ref="B1:H64"/>
+  <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
@@ -565,7 +592,7 @@
         <v>0.60109999999999997</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -588,7 +615,7 @@
         <v>0.61709999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -639,7 +666,7 @@
         <v>0.36614999999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -662,7 +689,7 @@
         <v>0.37023</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -713,7 +740,7 @@
         <v>0.22758700000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -736,7 +763,7 @@
         <v>0.36020000000000002</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -807,7 +834,7 @@
         <v>0.27726899999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -863,7 +890,7 @@
         <v>31921.484</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -886,7 +913,7 @@
         <v>34902.582399999999</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -937,7 +964,7 @@
         <v>1402.25</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -960,7 +987,7 @@
         <v>1423.14</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
@@ -1011,7 +1038,7 @@
         <v>1943.3332</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -1034,7 +1061,7 @@
         <v>2282.0819000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -1085,7 +1112,7 @@
         <v>11194.483</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -1108,7 +1135,7 @@
         <v>10328.907999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -1121,7 +1148,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -1131,6 +1158,18 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
+      <c r="D46">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.98846000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.77398999999999996</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -1139,6 +1178,21 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
+      <c r="D47">
+        <v>0.56286800000000003</v>
+      </c>
+      <c r="E47">
+        <v>0.978993</v>
+      </c>
+      <c r="F47">
+        <v>0.98943999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.82147420000000004</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -1147,8 +1201,23 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0.52515500000000004</v>
+      </c>
+      <c r="E48">
+        <v>1.063453</v>
+      </c>
+      <c r="F48">
+        <v>1.0312380000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.88863999999999999</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>6</v>
       </c>
@@ -1156,31 +1225,73 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E51">
+        <v>1.0269998</v>
+      </c>
+      <c r="F51">
+        <v>1.01340999</v>
+      </c>
+      <c r="G51">
+        <v>0.81642950000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>0.55092280000000005</v>
+      </c>
+      <c r="E52">
+        <v>0.57741927999999998</v>
+      </c>
+      <c r="F52">
+        <v>0.75988100000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.60184300000000002</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>0.61981858999999995</v>
+      </c>
+      <c r="E53">
+        <v>0.48883300000000002</v>
+      </c>
+      <c r="F53">
+        <v>0.69916599999999995</v>
+      </c>
+      <c r="G53">
+        <v>0.56657999999999997</v>
+      </c>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -1188,31 +1299,73 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>0.158</v>
+      </c>
+      <c r="E56">
+        <v>4.3736319999999997</v>
+      </c>
+      <c r="F56">
+        <v>2.091323</v>
+      </c>
+      <c r="G56">
+        <v>1.271137</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>5.1754830000000002E-2</v>
+      </c>
+      <c r="E57">
+        <v>3.0112822000000001</v>
+      </c>
+      <c r="F57">
+        <v>1.7353046599999999</v>
+      </c>
+      <c r="G57">
+        <v>1.3651795</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>9.1690839999999996E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.8844600100000002</v>
+      </c>
+      <c r="F58">
+        <v>1.698369</v>
+      </c>
+      <c r="G58">
+        <v>1.4188700000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>11</v>
       </c>
@@ -1220,15 +1373,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>0.314</v>
+      </c>
+      <c r="E61">
+        <v>3.2297859</v>
+      </c>
+      <c r="F61">
+        <v>1.7971600000000001</v>
+      </c>
+      <c r="G61">
+        <v>1.259932405</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>12</v>
       </c>
@@ -1247,8 +1412,11 @@
       <c r="G62">
         <v>1.04867</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>12</v>
       </c>
@@ -1267,13 +1435,21 @@
       <c r="G63">
         <v>1.01651</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/models/Outcomes.xlsx
+++ b/models/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winke/Documents/University/Thesis/Predicting_cycling/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0339B09-9AA1-3F4A-8C36-7F5D23578897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1861EC4-6F72-0A4E-8F8B-2E6C168BA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" xr2:uid="{E5E65584-7A53-3F4D-82A6-3A06F1469729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
   <si>
     <t>Country:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>counts and cycle_length normalised</t>
+  </si>
+  <si>
+    <t>{'C': 100, 'gamma': 0.001, 'kernel': 'linear'}</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABF419-1535-9E43-8F69-9F927161A5D0}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,6 +926,21 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
+      <c r="D27">
+        <v>7.0480000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>3920642699</v>
+      </c>
+      <c r="F27">
+        <v>62615.035000000003</v>
+      </c>
+      <c r="G27">
+        <v>34238.578752300004</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -1144,6 +1162,21 @@
       </c>
       <c r="C42" t="s">
         <v>9</v>
+      </c>
+      <c r="D42">
+        <v>8.9050000000000004E-2</v>
+      </c>
+      <c r="E42">
+        <v>985869710.60000002</v>
+      </c>
+      <c r="F42">
+        <v>31398.562000000002</v>
+      </c>
+      <c r="G42">
+        <v>10785.632799999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
